--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 10. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 10. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:H418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> 1847/16 SK. NO:12 KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> YALI CD NO:482/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 2024 SK. NO: 9B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> 538 SK. NO:41  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t xml:space="preserve"> İTOB OSB MAHALLESİ 10020 SK.  NO: 32/_  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> BAYRAKLI MAH. ORD. PROF. DR. EKREM AKURGAL SK.  NO: 3A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> REFET BELE MAH. ESKİİZMİR CAD. NO: 352A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> AOSB MAH. 10010 SK. NO: 15 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>ALTINTAŞ MAHALLESİ AHMET BESİM UYAL CADDESİ NO: 52 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> ANADOLU CD. NO:951/B  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t xml:space="preserve"> ÖNDER CADDESİ NO:30/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO: 393  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> 1723 SK. NO:26/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t xml:space="preserve"> 1722 SK. NO:5  KARŞIYAKA / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t xml:space="preserve"> 6065 SK. NO:10/B  / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t xml:space="preserve"> VATAN MAH. 9232 SK. EGE NO: 1A İÇ KAPI NO: A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t>İSKELE MAHALLESİ 2034 NO:5  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t xml:space="preserve"> TERSANE MAH. ŞEHİT ASIM AKSOY CAD. SAYINER NO: 44 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -896,6 +1181,21 @@
           <t xml:space="preserve"> ERGENE MAHALLESİ 457 SK. F.İNAL,N. KOÇ SİT.  NO: 13 B  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -919,6 +1219,21 @@
           <t>GAZİOSMANPAŞA             MAHALLESİ 5456 SOKAK NO: 48A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -942,6 +1257,21 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7447/13 SK. GÜNES BLOK  NO: 30A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -965,6 +1295,21 @@
           <t>FATİH MAHALLESİ 1198 SOKAK NO: 1H  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -988,6 +1333,21 @@
           <t>BAYRAKLI MAHALLESİ ORD. PROF. DR. EKREM AKURGAL SK. ÖZ BLOK  NO: 70C  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1011,6 +1371,21 @@
           <t>TEPEKULE MAHALLESİ ŞEHİT HAKAN UYSAL  SOK. NO:36  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1034,6 +1409,21 @@
           <t>ERZENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CD. NO:25/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1057,6 +1447,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ ANADOLU CADDESI NO:980  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1080,6 +1485,21 @@
           <t>KÜÇÜK ÇİĞLİ               MAHALLESİ ANADOLU CADDESI NO: 1185C ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1103,6 +1523,21 @@
           <t xml:space="preserve"> BİRLİK MAHALLESİ KEMALPAŞA CAD.  NO: 271 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1126,6 +1561,21 @@
           <t>BİRLİK                    MAHALLESİ KEMALPAŞA CADDESI NO: 173A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1149,6 +1599,21 @@
           <t>BOĞAZİÇİ                  MAHALLESİ BOĞAZİÇİ CADDESİ NO: 90/MUSTAKİL   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1172,6 +1637,21 @@
           <t>UĞUR MUMCU                MAHALLESİ 8790/5 SK. NO: 130 CCC ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1195,6 +1675,21 @@
           <t>ÖRNEKKÖY                  MAHALLESİ GİRNE BULVARI NO: 227 C KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1218,6 +1713,21 @@
           <t>İMBATLI                   MAHALLESİ ANADOLU CADDESİ NO:380/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1241,6 +1751,21 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CAD. NO: 106B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1264,6 +1789,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7106 SOKAK NO:2/8  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1287,6 +1827,21 @@
           <t>FATİH MAHALLESİ 1198 SOKAK NO:1/F  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1310,6 +1865,21 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI BLOK  NO: 24F KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1333,6 +1903,21 @@
           <t>KURUÇEŞME                 MAHALLESİ 203/45 SK. NO:1/1  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1356,6 +1941,21 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:27 KARŞIYAKA PLASTİK Apt. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1379,6 +1979,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:1/N  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1402,6 +2017,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6170 SK. B BLOK  NO: 15 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1425,6 +2055,21 @@
           <t>HARMANDALI MUSTAFA KEMAL ATATÜRK MAH. MAHALLESİ 9510/5 SK. B-BLOK  NO: 2  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1448,6 +2093,21 @@
           <t xml:space="preserve"> 1580 SK. NO:76  MERSİNLİ KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1471,6 +2131,21 @@
           <t xml:space="preserve"> 1203/11 SK. NO:2  KAT:1 YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1494,6 +2169,21 @@
           <t xml:space="preserve"> 1203/11 SOK. NO:2  DAİRE:302 YENİŞEHİR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1517,6 +2207,21 @@
           <t xml:space="preserve"> 1203/11 SK. NO:2  DAİRE:301 YENİŞEHİR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1540,6 +2245,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 71 SK. NO: 8 İÇ KAPI NO: 3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1563,6 +2283,21 @@
           <t xml:space="preserve"> TUNA MAH. SALAH BİRSEL SK. NO: 25C KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1586,6 +2321,21 @@
           <t xml:space="preserve"> PİRİ REİS MAHALLESİ 323 SK. HATAY SİTESİ-B APT.  NO: 23 B  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1609,6 +2359,21 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GÜMÜLDÜR İZMİR CD. NO: 157//2 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1632,6 +2397,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. UĞUR MUMCU CAD. NO: 4A ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1655,6 +2435,21 @@
           <t xml:space="preserve"> UMURBEY MAH. ŞEHİTLER CAD. NO: 10C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1678,6 +2473,21 @@
           <t>İNÖNÜ MAHALLESİ 682/14 SOKAK NO:50/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1701,6 +2511,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 6213 SK. SEYRAN APT. NO: 11A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1724,6 +2549,21 @@
           <t xml:space="preserve"> IRMAK MAH. 38 SK. B BLOK NO: 91/A GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1747,6 +2587,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO:23  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1770,6 +2625,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/6 SK. NO: 2P KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1793,6 +2663,21 @@
           <t>KONAK                     MAHALLESİ 871 SOKAK NO:66  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1816,6 +2701,21 @@
           <t xml:space="preserve"> 1202 SK. NO:65/C KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1839,6 +2739,21 @@
           <t>İTOB OSB MAHALLESİ 10001 SK. NO:14/2  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1862,6 +2777,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/1 SK. NO: 15 H KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1885,6 +2815,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1721 SK. NO: 18/1A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1908,6 +2853,21 @@
           <t>İNÖNÜ MAHALLESİ 9 EYLÜL CADDESİ NO:13/B  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1931,6 +2891,21 @@
           <t xml:space="preserve"> 277 SK. NO:23/A  / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1954,6 +2929,21 @@
           <t xml:space="preserve"> TUNA   5630   NO:NO:6/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1977,6 +2967,21 @@
           <t xml:space="preserve"> SAKARYA CADDESI NO:11/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2000,6 +3005,21 @@
           <t xml:space="preserve"> MEHMET ALİ AKMAN MAH. İNÖNÜ CAD. NO: 698E KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2023,6 +3043,21 @@
           <t>ADALET MAHALLESİ ŞEHİT POLİS FETHİ SEKİN CAD. NO: 6 A BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2046,6 +3081,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL CAD. NO:534  BOSTANLI KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2069,6 +3119,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1145/1 SOKAK NO:62/101  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2092,6 +3157,21 @@
           <t xml:space="preserve"> YENİŞEHİR  MAHALLESİ  1145/1  NO:62/301 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2115,6 +3195,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10027 SK. EKMEL ÜÇER APT.  NO: 7/_  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2138,6 +3233,21 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO: 57A  İÇ KAPI NO: A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2161,6 +3271,21 @@
           <t xml:space="preserve"> GÖZTEPE MAH. MİTHATPAŞA CAD. NO: 755A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2184,6 +3309,21 @@
           <t xml:space="preserve"> 5367 SOKAK NO:20/A  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2207,6 +3347,21 @@
           <t>ADALET MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CADDESİ NO:265  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2230,6 +3385,21 @@
           <t xml:space="preserve"> ÖNDER CAD. NO:75  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2253,6 +3423,21 @@
           <t>ALAYBEY TERSANE MAHALLESİ CEMAL GÜRSEL CAD. 476/5 GÜMÜŞPALA KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2276,6 +3461,21 @@
           <t>ILICA MAHALLESİ 5065 SOKAK NO:8/1  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2299,6 +3499,21 @@
           <t xml:space="preserve"> 853 SOKAK NO:13/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2322,6 +3537,21 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:134  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2345,6 +3575,21 @@
           <t xml:space="preserve"> 10026 SOKAK NO:48/50-52  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2368,6 +3613,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. KİPA NO: 46 İÇ KAPI NO: Z25 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2391,6 +3651,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL CADDE NO:248/B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2414,6 +3689,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1794 SK. NO: 18C KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2437,6 +3727,21 @@
           <t xml:space="preserve"> 7524 SK. NO:2/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2460,6 +3765,21 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CAD. NO: 107 B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2483,6 +3803,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 372 SK. ÖĞRENCİ YURDU SİTESİ A BLOK NO: 12/2C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2506,6 +3841,21 @@
           <t xml:space="preserve"> BİNBAŞI REŞATBEY MAH. AKÇAY CAD. NO: 9 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2529,6 +3879,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. GAZİ BUL.  NO: 179  İÇ KAPI NO: 2 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2552,6 +3917,21 @@
           <t>UMUT MAHALLESİ ÖĞRETMEN RASİME ŞEYHOĞLU SOKAK NO:11  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2571,6 +3951,21 @@
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2594,6 +3989,21 @@
           <t xml:space="preserve"> 1427 SOKAK NO:13/A  KAHRAMANLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2617,6 +4027,21 @@
           <t>KÜLTÜR                    MAHALLESİ 1382 SOKAK NO:23/B  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2640,6 +4065,21 @@
           <t xml:space="preserve"> 5123 SOKAK NO:1/1  ILICA ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2663,6 +4103,21 @@
           <t xml:space="preserve"> YEŞİLOVA  4174/1  NO:31/ZEMİNKAT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2686,6 +4141,21 @@
           <t>ALSANCAK MAHALLESİ İRFAN BOYUER SOKAK NO:18/B  HUZUR Apt. KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2709,6 +4179,21 @@
           <t xml:space="preserve"> İNÖNÜ CD. NO:201  HATAY KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2732,6 +4217,21 @@
           <t>KAKLIÇ                    MAHALLESİ 10310 SK. NO:6  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2755,6 +4255,21 @@
           <t>MANSUROĞLU MAHALLESİ İSLAM KERİMOV CAD. NO: 2 B/0 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2778,6 +4293,21 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO: 63 1B GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2801,6 +4331,21 @@
           <t>YEŞİL                     MAHALLESİ CENGİZHAN CAD. NO:10/B  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2824,6 +4369,21 @@
           <t xml:space="preserve"> 24 SOKAK NO:5  GÜZELYALI / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2847,6 +4407,21 @@
           <t>ULAMIŞ MAHALLESİ OKUL CAD. NO:44  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2870,6 +4445,21 @@
           <t xml:space="preserve"> AKSOY MAH. GİRNE BUL. BERKANT NO: 36/2 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2893,6 +4483,21 @@
           <t xml:space="preserve"> YALI MAH. MİTHATPAŞA CAD. NO: 164-166A GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2916,6 +4521,21 @@
           <t xml:space="preserve"> GÜNEŞLİ MAHALLESİ 520/2 SK.  NO: 2 A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2939,6 +4559,21 @@
           <t>GÜNEŞLİ                   MAHALLESİ 520/1 SOKAK NO:20/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2962,6 +4597,21 @@
           <t xml:space="preserve"> 119/1 SOKAK NO:5/A  EVKA 3 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2985,6 +4635,21 @@
           <t>ÇAMLIKULE                 MAHALLESİ 220/21 SK. NO: 98A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3008,6 +4673,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3031,6 +4711,21 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:3  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3054,6 +4749,21 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SOKAK NO: 14 C BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3077,6 +4787,21 @@
           <t>ONUR                      MAHALLESİ LEYLAK SK. NO:29/A  BALÇOVA / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3100,6 +4825,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BLV. A APT.  NO: 40/Z18  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3123,6 +4863,21 @@
           <t>BOSTANLI                  MAHALLESİ CEMAL GÜRSEL CADDESİ NO:111 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3146,6 +4901,21 @@
           <t>TAHSİN YAZICI MAHALLESİ 9302 SOK. NO:22/B-C-  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3169,6 +4939,21 @@
           <t>YILDIZ                    MAHALLESİ 206/34 SK. NO:18/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3192,6 +4977,21 @@
           <t xml:space="preserve"> DEMİRCİ EFE SK. NO:91/A  BALÇOVA BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3215,6 +5015,21 @@
           <t xml:space="preserve"> ATATÜRK CADDESİ NO:190/1-A  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3238,6 +5053,21 @@
           <t>AKALAN MAH. MAHALLESİ NO:120/A  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3261,6 +5091,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41  İÇ KAPI NO: 081 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3284,6 +5129,21 @@
           <t>BOSTANLI                  MAHALLESİ CEMAL GÜRSEL CADDESİ NO: 510 A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3307,6 +5167,21 @@
           <t>DONANMACI                 MAHALLESİ 1731 SK. NO: 1A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3330,6 +5205,21 @@
           <t>YALI                      MAHALLESİ 6470/2 SK. ŞEREF CENGİZ BLOK  NO: 2  İÇ KAPI NO: 1 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3353,6 +5243,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. ATATÜRK BUL. 12 SİTESİ BESTE NO: 14A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3376,6 +5281,21 @@
           <t>EGEKENT                   MAHALLESİ 8050 SK. AĞAÇ KIRAN BLOK  NO: 138A ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3399,6 +5319,21 @@
           <t xml:space="preserve"> ZÜBEYDE HANIM MAH. 7532 SK. NO: 173A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3418,6 +5353,21 @@
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3441,6 +5391,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MUSTAFA KEMAL   NO:124/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3464,6 +5429,21 @@
           <t xml:space="preserve"> DOĞANLAR MAHALLESİ OKUL SOKAK NO:39 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3487,6 +5467,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK BULVARI NO:9/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3510,6 +5505,21 @@
           <t xml:space="preserve"> MURAT REİS MAHALLESİ İNÖNÜ CAD.  NO: 288 A/A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3533,6 +5543,21 @@
           <t xml:space="preserve"> SÜVARİ CAD. NO:12/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3556,6 +5581,21 @@
           <t>KAZIMDİRİK MAHALLESİ SÜVARİ CAD. PARK BLOK  NO: 14A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3579,6 +5619,21 @@
           <t xml:space="preserve"> M.KEMAL CAD. NO:5/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3602,6 +5657,21 @@
           <t>DEDEBAŞI                  MAHALLESİ ORDU BULV NO:92/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3625,6 +5695,21 @@
           <t>AKDENİZ MAHALLESİ FEVZİPAŞA BULVARI NO:17 AZİMHAN KAT:5 DAİRE:504 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3648,6 +5733,21 @@
           <t>İNÖNÜ                     MAHALLESİ 743/3 SOKAK NO:12  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3671,6 +5771,21 @@
           <t>MANAVKUYU MAHALLESİ 236  SOK. FERHAT BLOK  NO: 3C  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3694,6 +5809,21 @@
           <t xml:space="preserve"> MIZRAKLI CADDESİ NO:42/D KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3717,6 +5847,21 @@
           <t xml:space="preserve"> HACI İSA MAH. BÜLENT BARATALI BUL. URLA CUMHURİYET MEYDANI NO: 40 İÇ KAPI NO: Z19 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3740,6 +5885,21 @@
           <t>ÜMİT                      MAHALLESİ 7305 SOKAK NO: 7A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3763,6 +5923,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAHALLESİ ANADOLU CAD.  NO: 827 A/_  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3786,6 +5961,21 @@
           <t>YUNUSEMRE MAHALLESİ YEŞİLLİK CAD. NO:392  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3809,6 +5999,21 @@
           <t>ÇATALKAYA                 MAHALLESİ MİTHATPAŞA CAD. NO:379/C  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3832,6 +6037,21 @@
           <t xml:space="preserve"> ÇATALKAYA MAH. MİTHATPAŞA CAD. ARIBURUN NO: 379A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3851,6 +6071,21 @@
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3874,6 +6109,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CENGİZ TOPEL CAD. KAHRAMAN BLOK  NO: 36B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3897,6 +6147,21 @@
           <t xml:space="preserve"> EMEK MAHALLESİ BARIŞ CAD. A APT.  NO: 47 B  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3920,6 +6185,21 @@
           <t>ALAÇATI MAHALLESİ 13046 SK  NO: 2A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3943,6 +6223,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6172 SK. İZELTAŞ GALERİA BLOK  NO: 10C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3966,6 +6261,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6167 SK. L. UYSALOĞLU SİTESİ NO: 44F BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3989,6 +6299,21 @@
           <t>ÇATALKAYA                 MAHALLESİ EDİPBEY SK NO:16  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4012,6 +6337,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 32 İÇ KAPI NO: 112 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4035,6 +6375,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. SÜVARİ CAD. ALPHAN NO: 65C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4058,6 +6413,21 @@
           <t xml:space="preserve"> İNÖNÜ TURGUT REİS     NO: NO:87 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4081,6 +6451,21 @@
           <t>EFELER                    MAHALLESİ MENDERES CADDESI NO:215/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4104,6 +6489,21 @@
           <t>GÜMÜŞPALA MAHALLESİ 7020 SK. NO:48  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4127,6 +6527,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: 249 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4150,6 +6565,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4174 SK.  NO: 84/247  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4173,6 +6603,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. MÜRSELPAŞA BUL. NO: 166H KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4196,6 +6641,21 @@
           <t xml:space="preserve"> BURAK REIS CADDESİ NO:138  / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4219,6 +6679,21 @@
           <t xml:space="preserve"> 5326 SOKAK NO:7/A  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4242,6 +6717,21 @@
           <t>YEŞİLOVA MAHALLESİ 4012/1 SOKAK NO:1/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4265,6 +6755,21 @@
           <t xml:space="preserve"> ABDI İPEKÇI CADDESI NO:93  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4288,6 +6793,21 @@
           <t>OVACIK MAHALLESİ 7000 SK. NO:20/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4311,6 +6831,21 @@
           <t>ÇAMLIPINAR                MAHALLESİ 254 SK. NO:295/1B  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4334,6 +6869,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. MÜRSELPAŞA BUL.  NO: 166A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4357,6 +6907,21 @@
           <t xml:space="preserve"> 34 SOK. NO:56/B  GÜZELYALI / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4380,6 +6945,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 286/7 SK. İNŞAAT APT.  NO: 1/1  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4403,6 +6983,21 @@
           <t xml:space="preserve"> HÜRRİYET BULV. NO:5/C  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4426,6 +7021,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 364/1 SK. NO: 32A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4449,6 +7059,21 @@
           <t>DEDEBAŞI                  MAHALLESİ 6111 SK.  NO: 47A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4472,6 +7097,21 @@
           <t xml:space="preserve"> SAKARYA CAD. NO:114/A  MANAVKUYU BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4495,6 +7135,21 @@
           <t xml:space="preserve"> ESKİİZMİR CADDESİ NO:263  BOZYAKA / İZMİR</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4518,6 +7173,21 @@
           <t>KONAK                     MAHALLESİ 901 SOKAK NO:2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4541,6 +7211,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ALİ ÇETİNKAYA BUL. NO: 55 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4564,6 +7249,21 @@
           <t xml:space="preserve"> EFELER MAH. 346 SK.  NO: 5A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4587,6 +7287,21 @@
           <t xml:space="preserve"> BAHARİYE MAH. DOÇ. DR. BAHRİYE ÜÇOK BUL. HURŞİT BEY NO: 4/1D KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4610,6 +7325,21 @@
           <t xml:space="preserve"> KONAK MAH. 914 SK. SELVİLİ HAN NO: 5 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4633,6 +7363,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK  NO: 45A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4656,6 +7401,21 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI  PALMİYE 2 BLOK  NO: 7C BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4679,6 +7439,21 @@
           <t xml:space="preserve"> CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK  NO: 230N  İÇ KAPI NO: N KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4702,6 +7477,21 @@
           <t xml:space="preserve"> RAFET PAŞA MAH. ABDİ İPEKÇİ CAD.  NO: 233A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4725,6 +7515,21 @@
           <t>FAHRETTİN ALTAY MAHALLESİ 65/13 SOK. NO: 35A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4748,6 +7553,21 @@
           <t xml:space="preserve"> AOSB MAH. 10025 SK. NO: 12 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4771,6 +7591,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. GİRNE BUL. NO: 33B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4794,6 +7629,21 @@
           <t>ÇATALKAYA                 MAHALLESİ MİTHATPAŞA CAD. NO:431/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4817,6 +7667,21 @@
           <t xml:space="preserve"> TALATPAŞA BULVARI NO:1/D  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4840,6 +7705,21 @@
           <t xml:space="preserve"> 194 SK. NO:20/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4863,6 +7743,21 @@
           <t xml:space="preserve"> 108/4 SOKAK NO:18/C  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4886,6 +7781,21 @@
           <t>TOKOĞLU MAHALLESİ KEMALPAŞA CAD. NO:65  ALAÇATI ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4909,6 +7819,21 @@
           <t>ALAÇATI MAHALLESİ UĞUR MUMCU CADDESİ NO:6/9  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4932,6 +7857,21 @@
           <t>ALAÇATI MAHALLESİ HURMALI (KÜME EVLER) NO: 56 /1  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4955,6 +7895,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 1B85 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4978,6 +7933,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 1B111  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5001,6 +7971,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 11040 SK. NO: 13 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5024,6 +8009,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 227 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5047,6 +8047,21 @@
           <t xml:space="preserve"> ANKARA CAD. NO:255/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5070,6 +8085,21 @@
           <t xml:space="preserve"> MENDERES CADDESI NO:53 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5093,6 +8123,21 @@
           <t>KAZIMDİRİK MAHALLESİ SÜVARİ CADDESİ NO:6/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5116,6 +8161,21 @@
           <t xml:space="preserve"> BARIŞ MAH. 302 SK. KAYA NO: 12C BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5139,6 +8199,21 @@
           <t xml:space="preserve"> BARIŞ MAH. ADNAN KAHVECİ CAD. NO: 137-1A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5162,6 +8237,21 @@
           <t xml:space="preserve"> BARIŞ MAH. 331 SK. KAYA NO: 57A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5185,6 +8275,21 @@
           <t xml:space="preserve"> İMBATLI MAH. 6070 SK. NO: 6B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5208,6 +8313,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1  SOK. NO:4/5  B Apt BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5231,6 +8351,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6130 SK. NO: 16/10 İÇ KAPI NO: 10 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5254,6 +8389,21 @@
           <t>KAZIM DİRİK MAHALLESİ MAHALLESİ MUSTAFA KEMAL CADDESİ NO:37/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5277,6 +8427,21 @@
           <t xml:space="preserve"> R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 1B73 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5300,6 +8465,21 @@
           <t xml:space="preserve"> GÜZELYALI MAH. MİTHATPAŞA CAD. NO: 1009A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5323,6 +8503,21 @@
           <t xml:space="preserve"> ATAKENT MAH. CAHER DUDAYEV BUL.  NO: 132A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5346,6 +8541,21 @@
           <t xml:space="preserve"> 1145/8 SOKAK NO:10  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5369,6 +8579,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 367/2 SK. NO: 4I BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5388,6 +8613,21 @@
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5411,6 +8651,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT MAH. 5111 SK. NO: 19 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5434,6 +8689,21 @@
           <t xml:space="preserve"> MALTEPE MAHALLESİ MİTHATPAŞA CAD.  NO: 117 A  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5457,6 +8727,21 @@
           <t>GÜZELYALI                 MAHALLESİ 40 SOKAK NO: 27 A/A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5480,6 +8765,21 @@
           <t xml:space="preserve"> İNÖNÜ CAD. NO:570/D  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5503,6 +8803,21 @@
           <t>NERGİZ                    MAHALLESİ 1775/3 SK. NO:8/A SİLYANOĞLU BLOK KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5526,6 +8841,21 @@
           <t>AYDIN MAHALLESİ 4328 SOKAK NO:19/A/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5549,6 +8879,21 @@
           <t>AYDIN MAHALLESİ 4328 SOKAK NO:11/1-1-A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5572,6 +8917,21 @@
           <t>ATAŞEHİR MAHALLESİ 8229/2 SOKAK NO: 7 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5595,6 +8955,21 @@
           <t>GÜLYAKA MAHALLESİ SAİM ÇIKRIKÇI CAD. NO:93/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5618,6 +8993,21 @@
           <t xml:space="preserve"> GÜNGÖREN CADDESI NO:79/A NARLIDERE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5641,6 +9031,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAHALLESİ ÖNDER CAD.  NO: 119 /2A  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5664,6 +9069,21 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK. NO:4/14  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5687,6 +9107,21 @@
           <t>YENİ MAHALLE MAHALLESİ 1671/1 SK. NO: 855 /1A   ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5710,6 +9145,21 @@
           <t>ATİLLA                    MAHALLESİ 466 SOKAK NO: 40 A/A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5733,6 +9183,21 @@
           <t xml:space="preserve"> KASIMPAŞA  271  NO: NO:2/B  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5756,6 +9221,21 @@
           <t>KAZIM DİRİK MAHALLESİ ÜNİVERSİTE CD. NO:66  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5779,6 +9259,21 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO:11  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5802,6 +9297,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO: 24  İÇ KAPI NO: 309 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5825,6 +9335,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 2222 SK. NO: 95 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5848,6 +9373,21 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV CAD. NO:30/H  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5871,6 +9411,21 @@
           <t>DONANMACI                 MAHALLESİ 1722 SK. GÜCELİ İŞ MERKEZİ BLOK  NO: 9  İÇ KAPI NO: 30 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5894,6 +9449,21 @@
           <t>MİTHAT PAŞA               MAHALLESİ 194 SOKAK NO:12/A  POSTAKODU:35280  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5917,6 +9487,21 @@
           <t>YENİŞEHİR MAHALLESİ 1145 SOK. NO: 16 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5940,6 +9525,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 194 SK. NO: 6A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5963,6 +9563,21 @@
           <t xml:space="preserve"> GÖKSU MAH. 690/9 SK. NO: 60A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5986,6 +9601,21 @@
           <t xml:space="preserve"> EGEKENT MAH. 8847 SK. SAĞLIK MENSUPLARI SİTESİ LEVENT BLOK  NO: 11A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6009,6 +9639,21 @@
           <t>FEVZİÇAKMAK               MAHALLESİ SAKARYA CADDESI  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6032,6 +9677,21 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/1B05  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6055,6 +9715,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6078,6 +9753,21 @@
           <t>ÇINARLI                   MAHALLESİ ANKARA ASFALTI CADDESİ . AVM Apt.  NO: 15 /1T   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6101,6 +9791,21 @@
           <t xml:space="preserve"> PLEVNE BULVARI NO:25/E  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6124,6 +9829,21 @@
           <t>KÜLTÜR                    MAHALLESİ PLEVNE BULVARI NO:25  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6147,6 +9867,21 @@
           <t>YENİŞEHİR                 MAHALLESİ GAZİLER CADDESİ NO: 331 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6170,6 +9905,21 @@
           <t xml:space="preserve"> GÖKSU MAHALLESİ 637/24 SK.  NO: 27 A/A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6193,6 +9943,21 @@
           <t xml:space="preserve"> ANAFARTALAR CADDESİ NO:659  / İZMİR</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6216,6 +9981,21 @@
           <t xml:space="preserve"> OSMANGAZİ  MAHALLESİ YAVUZ CAD. NO: 288 A/ BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6239,6 +10019,21 @@
           <t xml:space="preserve"> 929 SK. NO:13  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6262,6 +10057,21 @@
           <t>MEVLANA                   MAHALLESİ 1751/4 SOKAK NO:3/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6285,6 +10095,21 @@
           <t>ADALET MAHALLESİ 1596  SOK. HİTAY PLAZA BLOK  NO: 2  İÇ KAPI NO: 28 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6308,6 +10133,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. GEDİZ CAD. KADRİ DAĞÜSTÜ NO: 21C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6331,6 +10171,21 @@
           <t>AKINCILAR                 MAHALLESİ AYDIN HATBOYU CADDESI NO:346/B  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6354,6 +10209,21 @@
           <t>İNÖNÜ                     MAHALLESİ 672 SK. NO: 53A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6377,6 +10247,21 @@
           <t>KAZIMDİRİK MAHALLESİ 296/1 SK. NO:26 ADB PLAZA BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6400,6 +10285,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ 1372 SOK. NO:17/1  ALSANCAK KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6423,6 +10323,21 @@
           <t xml:space="preserve"> 304 SOKAK NO:2/A  MİTHATPAŞA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6446,6 +10361,21 @@
           <t xml:space="preserve"> ALTINTAŞ MAHALLESİ İNÖNÜ CAD.  NO: 116 B/B  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6469,6 +10399,21 @@
           <t>KAZIM KARABEKİR MAHALLESİ 9021 SK. NO: 6A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6492,6 +10437,21 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD.  NO: 81 A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6515,6 +10475,21 @@
           <t>KÜLTÜR                    MAHALLESİ İTALYA SOKAK NO:4/D BOYALI BLOK  İÇ KAPI NO: 4D KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6538,6 +10513,21 @@
           <t xml:space="preserve"> ATAKENT MAHALLESİ CAHER DUDAYEV BLV.  NO: 118 B  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6561,6 +10551,21 @@
           <t xml:space="preserve"> UFUK MAH. 907/2 SK. NO: 4A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6584,6 +10589,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: 1B120 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6607,6 +10627,21 @@
           <t xml:space="preserve"> ZÜBEYDE HANIM MAHALLESİ 7448/4 SK.  NO: 33 L  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6630,6 +10665,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:6/D  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6653,6 +10703,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 859 SK. SARAY İŞHANI APT.  NO: 5/212-  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6676,6 +10741,21 @@
           <t>KAZIMDİRİK MAHALLESİ 364/11 SK NO:1/3L  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6699,6 +10779,21 @@
           <t xml:space="preserve"> MUSTAFA KEMAL CD. NO:11/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6722,6 +10817,21 @@
           <t xml:space="preserve"> MANAVKUYU MAH. DUMLUPINAR CAD.  NO: 53/1B BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6745,6 +10855,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ATATÜRK CAD. TAYYARE BLOK  NO: 204A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6768,6 +10893,21 @@
           <t xml:space="preserve"> BADEMLER MAH. 15072 SK. NO: 1/101C URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6791,6 +10931,21 @@
           <t xml:space="preserve"> 254 SK. NO:89/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6814,6 +10969,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL CADDESİ NO:111  BOSTANLI KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6837,6 +11007,21 @@
           <t xml:space="preserve"> ŞEMİKLER MAHALLESİ ORDU BLV.  NO: 184 A  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6860,6 +11045,21 @@
           <t>MENDERES                  MAHALLESİ BÜYÜK MENDERES CAD. NO:77/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6883,6 +11083,21 @@
           <t xml:space="preserve"> FATİH MAH. 1213 SK.  NO: 6K GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6906,6 +11121,21 @@
           <t xml:space="preserve"> BOSTANLI  1671  NO:181/C KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6929,6 +11159,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 47 B/2601 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6952,6 +11197,21 @@
           <t xml:space="preserve"> MİTHAT PAŞA CADDESI NO:325/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6971,6 +11231,21 @@
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6994,6 +11269,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4174 SOKAK A BLOK  NO: 84  İÇ KAPI NO: Z45  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7017,6 +11307,21 @@
           <t xml:space="preserve"> YELKİ MAH. 2730 SK. B NO: 69A GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7040,6 +11345,21 @@
           <t xml:space="preserve"> İNÖNÜ CADDESİ NO:294/C  HATAY KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7063,6 +11383,21 @@
           <t>YEŞİLBAĞLAR               MAHALLESİ 647/1 SK. NO: 186  İÇ KAPI NO: 1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7086,6 +11421,21 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:30  KAT:2 DAİRE:4 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7109,6 +11459,21 @@
           <t xml:space="preserve"> ÖRNEKKÖY MAH. 1847/3 SK.  NO: 24B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7132,6 +11497,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ 686/5 SK. NO: 4A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7155,6 +11535,21 @@
           <t xml:space="preserve"> 293/1 SK. NO:10/c  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7178,6 +11573,21 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 9687/3 SK. NO:6A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7201,6 +11611,21 @@
           <t>YELKİ MAHALLESİ İNÖNÜ CAD. NO: 74 A GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7224,6 +11649,21 @@
           <t>SARIYER MAHALLESİ 5673 SK. NO: 2A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7247,6 +11687,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. SANAYİ CAD. NO: 29C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7270,6 +11725,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 777 SK. NO: 12 İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7293,6 +11763,21 @@
           <t>GONCALAR                  MAHALLESİ 6007/3 SK. TAKMAZ BLOK  NO: 14C KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7316,6 +11801,21 @@
           <t>KORUTÜRK MAHALLESİ MİTHATPAŞA CAD. İ. HAKKI BEY BLOK  NO: 261B BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7339,6 +11839,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ 2040 SK. EGE PARK ALIŞVERİŞ MERK Apt.  NO: 104/Z62 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7362,6 +11877,21 @@
           <t xml:space="preserve"> KONAK MAH. 861 SK. NO: 54 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7385,6 +11915,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7408,6 +11953,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: 273  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7431,6 +11991,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. ÖZSÜT BLOK  NO: 51 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7454,6 +12029,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 859 SK. SARAY İŞHANI APT.  NO: 5/212-  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7477,6 +12067,21 @@
           <t>AKINCI                    MAHALLESİ ANAFARTALAR CADDESİ NO:735  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7500,6 +12105,21 @@
           <t xml:space="preserve"> ÜÇKUYULAR MAH. MEHMETÇİK BUL. NO: 43B İÇ KAPI NO: B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7523,6 +12143,21 @@
           <t xml:space="preserve"> ÜÇKUYULAR MAH. MEHMETÇİK BUL. NO: 47A İÇ KAPI NO: A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7546,6 +12181,21 @@
           <t xml:space="preserve"> GAZİ MAH. 28/5 SK. NO: 8  İÇ KAPI NO: 5 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7569,6 +12219,21 @@
           <t xml:space="preserve"> REİSDERE MAH. 6099/2 SK.  NO: 5D ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7592,6 +12257,21 @@
           <t xml:space="preserve"> 1203/9 SOK. NO:1/G-E-F MEYVE İŞ MERKEZİ YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7615,6 +12295,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA CAD. NO:51 ÖZSÜT BLOK KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7634,6 +12329,21 @@
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7657,6 +12367,21 @@
           <t xml:space="preserve"> 1203/11 SOK.  HALKAPINAR / İZMİR</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7680,6 +12405,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAHALLESİ 1593/1 SK. NO: 6 D/ BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7703,6 +12443,21 @@
           <t>ÇINAR                     MAHALLESİ FATİH CADDESİ NO:1/23/120 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7726,6 +12481,21 @@
           <t>ATAŞEHİR MAHALLESİ 8229/1 SOK. NO:30  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7749,6 +12519,21 @@
           <t>ÇANKAYA MAHALLESİ İNÖNÜ CAD. NO:332/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7772,6 +12557,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. KUT APT.  NO: 16 C  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7795,6 +12595,21 @@
           <t xml:space="preserve"> KURUÇEŞME MAH. DOĞUŞ CAD. OTAĞKENT SİTESİ NO: 198B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7818,6 +12633,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/4 SK.  NO: 12A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7841,6 +12671,21 @@
           <t xml:space="preserve"> AHMET EFENDİ MAHALLESİ 8790/5 SK.  NO: 7 A  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7864,6 +12709,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. PLEVNE BUL. SAFİYE HANIM BLOK  NO: 32F KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7887,6 +12747,21 @@
           <t>BADEMLER MAHALLESİ 15035 SOKAK 5/A URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7910,6 +12785,21 @@
           <t>MANSUROĞLU MAHALLESİ İSLAM KERİMOV CAD. NO: 8C BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7933,6 +12823,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7956,6 +12861,21 @@
           <t>BEYAZEVLER                MAHALLESİ OPTİMUM ALIŞVERİŞ MERKEZİ B-1. KAT NO:14/A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7979,6 +12899,21 @@
           <t>MANAVKUYU MAHALLESİ DUMLUPINAR  CAD. NO:138/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -8002,6 +12937,21 @@
           <t>KAZIM DİRİK MAHALLESİ KURTULUŞ CAD. NO:15/D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8025,6 +12975,21 @@
           <t xml:space="preserve"> MUSTAFA KEMAL CADDESI NO:6/D  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8048,6 +13013,21 @@
           <t>YENİ MAHALLE MAHALLESİ ESKİ HAVAALANI CAD. NO:40  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8071,6 +13051,21 @@
           <t>ŞİRİNTEPE                 MAHALLESİ ANADOLU CADDESI NO: 778B ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8094,6 +13089,21 @@
           <t xml:space="preserve"> KÜÇÜK ÇİĞLİ MAH. 8780/27 SK.  NO: 18-5 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8117,6 +13127,21 @@
           <t>NERGİZ                    MAHALLESİ 2002 SK. NO:14/A TUĞÇE BLOK   KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8140,6 +13165,21 @@
           <t xml:space="preserve"> NERGİZ MAH. 2004 SK. KÖŞEM NO: 17A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8163,6 +13203,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 4951 SK. NO: 72B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8186,6 +13241,21 @@
           <t xml:space="preserve"> ALSANCAK   ALİ ÇETİNKAYA NO:27/C KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8209,6 +13279,21 @@
           <t xml:space="preserve"> 1082 SOKAK NO:12/A  HALKAPINAR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8232,6 +13317,21 @@
           <t xml:space="preserve"> BOSTANLI MAHALLESİ CEMAL GÜRSEL CAD.  NO: 472 /1/2  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8255,6 +13355,21 @@
           <t xml:space="preserve"> ATATÜRK BULVARI NO:51  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8278,6 +13393,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 MAĞAZA NO:B1K-021A İZMİR OPTİMUM AVM.  / </t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8301,6 +13431,21 @@
           <t xml:space="preserve"> İNÖNÜ CAD. NO:208/A  ÜÇYOL KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8324,6 +13469,21 @@
           <t xml:space="preserve"> ZAFER MAH. 4349/1 SK.  NO: 7  İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8347,6 +13507,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8370,6 +13545,21 @@
           <t xml:space="preserve"> ÇUKURALTI MAH. MUSTAFA KEMAL PAŞA BUL. NO: 116B MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8393,6 +13583,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. 370 SK. NO: 10B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8416,6 +13621,21 @@
           <t xml:space="preserve"> 10016 SOK. NO:2  ATATÜRK ORGANİZE SANAYİ BÖLGESİ ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8439,6 +13659,21 @@
           <t xml:space="preserve"> ERZENE MAH. 29 SK. NO: 2-6A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8462,6 +13697,21 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO: 1088A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8485,6 +13735,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7086 SK.  NO: 21  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8508,6 +13773,21 @@
           <t>BOSTANLI                  MAHALLESİ CEMAL BÜLBÜL SK.  NO: 2B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8531,6 +13811,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD.  NO: 51  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8554,6 +13849,21 @@
           <t>KÜLTÜR                    MAHALLESİ 1382 SOKAK NO: 26A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8577,6 +13887,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. AŞIK VEYSEL SK. VEDATBEY NO: 4A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8600,6 +13925,21 @@
           <t xml:space="preserve"> 1643/31  SOK. NO:4/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8623,6 +13963,21 @@
           <t>FEVZİÇAKMAK MAHALLESİ İZMİR CAD. NO:157  KAT:2 GÜMÜLDÜR MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -8646,6 +14001,21 @@
           <t xml:space="preserve"> FATİH  1198  NO:  NO:1/H  SARNIÇ    GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -8669,6 +14039,21 @@
           <t>BAHÇELİEVLER MAHALLESİ İNÖNÜ CAD. FİDAN BLOK  NO: 99B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -8692,6 +14077,21 @@
           <t xml:space="preserve"> 887 SOK. NO:5/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8715,6 +14115,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 787/1 SK. NO: 19A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8738,6 +14153,21 @@
           <t>YALI MAHALLESİ CAHER DUDAYEV BULVARI NO:77/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8761,6 +14191,21 @@
           <t xml:space="preserve"> 362 SOKAK NO:53/B  ALTINTAŞ / İZMİR</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8784,6 +14229,21 @@
           <t xml:space="preserve"> ESENYALI  52/52  NO:9A/A KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8807,6 +14267,21 @@
           <t xml:space="preserve"> KORUTÜRK MAH. MİTHATPAŞA CAD. SELİN BLOK  NO: 263A BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8830,6 +14305,21 @@
           <t xml:space="preserve"> MITHAT PAŞA CADDESI NO:263/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8853,6 +14343,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6074 SK.  NO: 8A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8876,6 +14381,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/3 SK. NO: 11C BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8899,6 +14419,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. 1787/1 SK. KÖŞEM BLOK  NO: 35B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8922,6 +14457,21 @@
           <t>ÇAHABEY                   MAHALLESİ 384 SOKAK NO:48  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8945,6 +14495,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ 915  SOKAK NO:25 A /- _ ADRES NO: 2398316907 OFİS VE İŞYERİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -8968,6 +14533,21 @@
           <t xml:space="preserve"> KIBRIS ŞEHİTLERİ CADDESİ NO:104/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -8991,6 +14571,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ATATÜRK CAD. MARTI APARTMAN BLOK  NO: 202A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9014,6 +14609,21 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 612  İÇ KAPI NO: 1 KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9037,6 +14647,21 @@
           <t xml:space="preserve"> 4155 SOKAK NO:6/A  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9060,6 +14685,21 @@
           <t xml:space="preserve"> 296/1 SK. NO:26/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9083,6 +14723,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. YENİHAVAALANI CAD. ÇİĞLİ KİPA NO: 40 İÇ KAPI NO: Z15 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9106,6 +14761,21 @@
           <t xml:space="preserve"> GİRNE BULVARI NO:1/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9129,6 +14799,21 @@
           <t xml:space="preserve"> ALİ ÇETİNKAYA BULVARI NO:53/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9152,6 +14837,21 @@
           <t>MİMAR SİNAN               MAHALLESİ 1420 SK. NO:90/B  ALSANCAK KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9175,6 +14875,21 @@
           <t xml:space="preserve"> KURUÇEŞME MAH. AHMET PİRİŞTİNA BUL. NO: 64A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9198,6 +14913,21 @@
           <t xml:space="preserve"> TUNA  5627  NO:NO:22 ÇAMDİBİ  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9221,6 +14951,21 @@
           <t xml:space="preserve"> ADATEPE MAH. BAŞARI CAD.  NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9244,6 +14989,21 @@
           <t>YENİGÜN                   MAHALLESİ 265/8 SK. NO:31/1A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9267,6 +15027,21 @@
           <t xml:space="preserve"> UFUK MAHALLESİ FEVZİ ÇAKMAK CAD.  NO: 222 B  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9290,6 +15065,21 @@
           <t xml:space="preserve"> UFUK MAH. 893 SK. NO: 11A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9313,6 +15103,21 @@
           <t>KÜLTÜR                    MAHALLESİ ŞAİR EŞREF BULVARI BAHAR BLOK  NO: 61C  İÇ KAPI NO: 61C KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9332,6 +15137,21 @@
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9355,6 +15175,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10010 SK. ORBA İLAÇ APT.  NO: 10  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9378,6 +15213,21 @@
           <t>AKDENİZ                   MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:46/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9401,6 +15251,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9424,6 +15289,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:36 FORUM SİT. A2BLOK BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9447,6 +15327,21 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CADDESİ NO:40/Z 103 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9470,6 +15365,21 @@
           <t>BADEMLER MAHALLESİ SEFERİHİSAR CADDESİ NO:72  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9493,6 +15403,21 @@
           <t>ILICA MAHALLESİ 5133 SOK. NO:20/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9516,6 +15441,21 @@
           <t xml:space="preserve"> MEHMET AKİF CADDESİ NO:25/A  ŞİRİNYER BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9539,6 +15479,21 @@
           <t xml:space="preserve"> 700 SOK. NO:27  AKINCILAR BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9562,6 +15517,21 @@
           <t xml:space="preserve"> MEHMET AKİF CADDESİ NO:25  ŞİRİNYER / İZMİR</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9585,6 +15555,21 @@
           <t>ATIFBEY                   MAHALLESİ PROF. TÜRKAN SAYLAN CAD. NO: 32 B/B   GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9608,6 +15593,21 @@
           <t>YUNUS EMRE MAHALLESİ 4024 SOKAK NO: 27 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -9631,6 +15631,21 @@
           <t xml:space="preserve"> ATAKENT MAH. CAHER DUDAYEV BUL. PALMİYE BLOK  NO: 114D KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -9654,6 +15669,21 @@
           <t>YALI MAHALLESİ 6479 SOKAK NO:42/A  SEVİM HN APRT KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -9677,6 +15707,21 @@
           <t>MENDERES                  MAHALLESİ HALK CADDESI NO: 40 A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -9700,6 +15745,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. 266 SK. ŞİMŞEK NO: 26 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -9723,6 +15783,21 @@
           <t xml:space="preserve"> CEMAL GÜRSEL CADDESİ NO:492/B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -9746,6 +15821,21 @@
           <t xml:space="preserve"> 5332 SOKAK NO:3/C BORKOP SİTELERİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -9769,6 +15859,21 @@
           <t xml:space="preserve"> 303 SOKAK NO:55  2.SANAYİ SİTESİ / İZMİR</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9792,6 +15897,21 @@
           <t>ATATÜRK                   MAHALLESİ 905/1 SOKAK NO:4/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9815,6 +15935,21 @@
           <t>MİMAR SİNAN               MAHALLESİ MİMAR SİNAN CAD. ATİK Apt.  NO: 5 B/5B KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9838,6 +15973,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. ABDİ İPEKÇİ CAD.  NO: 85A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9861,6 +16011,21 @@
           <t>ALAÇATI MAHALLESİ 11026 SOKAK NO:4/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9884,6 +16049,21 @@
           <t xml:space="preserve"> SELVİLİ MAHALLESİ ŞEHİT PİLOT VOLKAN KOÇYİĞİT BLV. BAYLAN APT.  NO: 57 A  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9907,6 +16087,21 @@
           <t xml:space="preserve"> 7600  SOK. NO: 102 A ÖRNEKKÖY BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9930,6 +16125,21 @@
           <t xml:space="preserve"> EGEMENLİK  6147/1  NO:NO: 28 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9953,6 +16163,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAH. AZİZ NESİN BUL. FLAMİNGO14 NO: 111 İÇ KAPI NO: 9 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9976,6 +16201,21 @@
           <t xml:space="preserve"> RAFET PAŞA MAH. YILDIRIM BEYAZIT CAD. B BLOK NO: 217E BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -9999,6 +16239,21 @@
           <t>1.KADRİYE                 MAHALLESİ 628 SOKAK  NO: 63 A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10020,6 +16275,21 @@
       <c r="E418" t="inlineStr">
         <is>
           <t xml:space="preserve"> ÇAMLIKULE MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BLV.  NO: 125 A/A  BUCA/İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>PASTA VE ŞEKERLEME GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 10. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 10. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J318"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="137" customWidth="1" min="8" max="8"/>
     <col width="101" customWidth="1" min="9" max="9"/>
-    <col width="32" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>BOSTANLI MAH. 2024 SK. NO: 9B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>İTOB OSB MAHALLESİ 10020 SK. NO: 32/_ MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>BAYRAKLI MAH. ORD. PROF. DR. EKREM AKURGAL SK. NO: 3A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>REFET BELE MAH. ESKİİZMİR CAD. NO: 352A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>AOSB MAH. 10010 SK. NO: 15 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>ALTINTAŞ MAHALLESİ AHMET BESİM UYAL CADDESİ NO: 52 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CAD. NO: 393 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>VATAN MAH. 9232 SK. EGE NO: 1A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>İSKELE MAHALLESİ 2034 NO:5 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>TERSANE MAH. ŞEHİT ASIM AKSOY CAD. SAYINER NO: 44 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>ERGENE MAHALLESİ 457 SK. F.İNAL,N. KOÇ SİT. NO: 13 B BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>GAZİOSMANPAŞA MAHALLESİ 5456 SOKAK NO: 48A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7447/13 SK. GÜNES BLOK NO: 30A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>FATİH MAHALLESİ 1198 SOKAK NO: 1H GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>BAYRAKLI MAHALLESİ ORD. PROF. DR. EKREM AKURGAL SK. ÖZ BLOK NO: 70C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>TEPEKULE MAHALLESİ ŞEHİT HAKAN UYSAL SOK. NO:36 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>ERZENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CD. NO:25/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ ANADOLU CADDESI NO:980 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>KÜÇÜK ÇİĞLİ MAHALLESİ ANADOLU CADDESI NO: 1185C ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>BİRLİK MAHALLESİ KEMALPAŞA CAD. NO: 271 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>BİRLİK MAHALLESİ KEMALPAŞA CADDESI NO: 173A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>BOĞAZİÇİ MAHALLESİ BOĞAZİÇİ CADDESİ NO: 90/MUSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>UĞUR MUMCU MAHALLESİ 8790/5 SK. NO: 130 CCC ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ÖRNEKKÖY MAHALLESİ GİRNE BULVARI NO: 227 C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>İMBATLI MAHALLESİ ANADOLU CADDESİ NO:380/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CAD. NO: 106B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>KEMALPAŞA MAHALLESİ 7106 SOKAK NO:2/8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>FATİH MAHALLESİ 1198 SOKAK NO:1/F GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI BLOK NO: 24F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>KURUÇEŞME MAHALLESİ 203/45 SK. NO:1/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:27 KARŞIYAKA PLASTİK Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:1/N KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>KARACAOĞLAN MAH. 6170 SK. B BLOK NO: 15 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>HARMANDALI MUSTAFA KEMAL ATATÜRK MAH. MAHALLESİ 9510/5 SK. B-BLOK NO: 2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>ATIFBEY MAH. 71 SK. NO: 8 İÇ KAPI NO: 3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>TUNA MAH. SALAH BİRSEL SK. NO: 25C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>PİRİ REİS MAHALLESİ 323 SK. HATAY SİTESİ-B APT. NO: 23 B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GÜMÜLDÜR İZMİR CD. NO: 157//2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ALAÇATI MAH. UĞUR MUMCU CAD. NO: 4A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>UMURBEY MAH. ŞEHİTLER CAD. NO: 10C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>İNÖNÜ MAHALLESİ 682/14 SOKAK NO:50/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>YEŞİLOVA MAH. 6213 SK. SEYRAN APT. NO: 11A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>IRMAK MAH. 38 SK. B BLOK NO: 91/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/1 SK NO:23 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>HALKAPINAR MAH. 1202/6 SK. NO: 2P KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>KONAK MAHALLESİ 871 SOKAK NO:66 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>İTOB OSB MAHALLESİ 10001 SK. NO:14/2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/1 SK. NO: 15 H KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>DONANMACI MAH. 1721 SK. NO: 18/1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>İNÖNÜ MAHALLESİ 9 EYLÜL CADDESİ NO:13/B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>MEHMET ALİ AKMAN MAH. İNÖNÜ CAD. NO: 698E KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>ADALET MAHALLESİ ŞEHİT POLİS FETHİ SEKİN CAD. NO: 6 A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/1 SOKAK NO:62/101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145/1 NO:62/301 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>AOSB MAHALLESİ 10027 SK. EKMEL ÜÇER APT. NO: 7/_ ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO: 57A İÇ KAPI NO: A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. NO: 755A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>ADALET MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CADDESİ NO:265 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>ALAYBEY TERSANE MAHALLESİ CEMAL GÜRSEL CAD. 476/5 GÜMÜŞPALA KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ILICA MAHALLESİ 5065 SOKAK NO:8/1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO:134 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. KİPA NO: 46 İÇ KAPI NO: Z25 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>BOSTANLI MAH. 1794 SK. NO: 18C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>DEDEBAŞI MAHALLESİ ALİ ALP BÖKE CAD. NO: 107 B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>KAZIMDİRİK MAH. 372 SK. ÖĞRENCİ YURDU SİTESİ A BLOK NO: 12/2C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>BİNBAŞI REŞATBEY MAH. AKÇAY CAD. NO: 9 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>KEMALPAŞA OSB MAH. GAZİ BUL. NO: 179 İÇ KAPI NO: 2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>UMUT MAHALLESİ ÖĞRETMEN RASİME ŞEYHOĞLU SOKAK NO:11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOKAK NO:23/B ALSANCAK / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>ALSANCAK MAHALLESİ İRFAN BOYUER SOKAK NO:18/B HUZUR Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>KAKLIÇ MAHALLESİ 10310 SK. NO:6 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>MANSUROĞLU MAHALLESİ İSLAM KERİMOV CAD. NO: 2 B/0 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO: 63 1B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>YEŞİL MAHALLESİ CENGİZHAN CAD. NO:10/B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>ULAMIŞ MAHALLESİ OKUL CAD. NO:44 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>AKSOY MAH. GİRNE BUL. BERKANT NO: 36/2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>YALI MAH. MİTHATPAŞA CAD. NO: 164-166A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>GÜNEŞLİ MAHALLESİ 520/2 SK. NO: 2 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>GÜNEŞLİ MAHALLESİ 520/1 SOKAK NO:20/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>ÇAMLIKULE MAHALLESİ 220/21 SK. NO: 98A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>İTOB OSB MAHALLESİ 10014 SOKAK NO:3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SOKAK NO: 14 C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ONUR MAHALLESİ LEYLAK SK. NO:29/A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV BLV. A APT. NO: 40/Z18 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO:111 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>TAHSİN YAZICI MAHALLESİ 9302 SOK. NO:22/B-C- KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>YILDIZ MAHALLESİ 206/34 SK. NO:18/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>AKALAN MAH. MAHALLESİ NO:120/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CADDESİ NO: 510 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>DONANMACI MAHALLESİ 1731 SK. NO: 1A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>YALI MAHALLESİ 6470/2 SK. ŞEREF CENGİZ BLOK NO: 2 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>ATAŞEHİR MAH. ATATÜRK BUL. 12 SİTESİ BESTE NO: 14A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>EGEKENT MAHALLESİ 8050 SK. AĞAÇ KIRAN BLOK NO: 138A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>ZÜBEYDE HANIM MAH. 7532 SK. NO: 173A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>DOĞANLAR MAHALLESİ OKUL SOKAK NO:39 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>MURAT REİS MAHALLESİ İNÖNÜ CAD. NO: 288 A/A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>KAZIMDİRİK MAHALLESİ SÜVARİ CAD. PARK BLOK NO: 14A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>DEDEBAŞI MAHALLESİ ORDU BULV NO:92/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>AKDENİZ MAHALLESİ FEVZİPAŞA BULVARI NO:17 AZİMHAN KAT:5 DAİRE:504 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>İNÖNÜ MAHALLESİ 743/3 SOKAK NO:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>MANAVKUYU MAHALLESİ 236 SOK. FERHAT BLOK NO: 3C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>HACI İSA MAH. BÜLENT BARATALI BUL. URLA CUMHURİYET MEYDANI NO: 40 İÇ KAPI NO: Z19 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>ÜMİT MAHALLESİ 7305 SOKAK NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ATAŞEHİR MAHALLESİ ANADOLU CAD. NO: 827 A/_ ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>YUNUSEMRE MAHALLESİ YEŞİLLİK CAD. NO:392 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>ÇATALKAYA MAHALLESİ MİTHATPAŞA CAD. NO:379/C NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ÇATALKAYA MAH. MİTHATPAŞA CAD. ARIBURUN NO: 379A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>BOSTANLI MAH. CENGİZ TOPEL CAD. KAHRAMAN BLOK NO: 36B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>EMEK MAHALLESİ BARIŞ CAD. A APT. NO: 47 B BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ALAÇATI MAHALLESİ 13046 SK NO: 2A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>KARACAOĞLAN MAH. 6172 SK. İZELTAŞ GALERİA BLOK NO: 10C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>KARACAOĞLAN MAH. 6167 SK. L. UYSALOĞLU SİTESİ NO: 44F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>ÇATALKAYA MAHALLESİ EDİPBEY SK NO:16 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>BAHÇELERARASI MAH. MİTHATPAŞA CAD. NO: 32 İÇ KAPI NO: 112 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>KAZIMDİRİK MAH. SÜVARİ CAD. ALPHAN NO: 65C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO:215/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>GÜMÜŞPALA MAHALLESİ 7020 SK. NO:48 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>YEŞİLOVA MAH. 4174 SK. A NO: 84 İÇ KAPI NO: 249 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SK. NO: 84/247 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>HALKAPINAR MAH. MÜRSELPAŞA BUL. NO: 166H KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>YEŞİLOVA MAHALLESİ 4012/1 SOKAK NO:1/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>OVACIK MAHALLESİ 7000 SK. NO:20/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>ÇAMLIPINAR MAHALLESİ 254 SK. NO:295/1B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>HALKAPINAR MAH. MÜRSELPAŞA BUL. NO: 166A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/7 SK. İNŞAAT APT. NO: 1/1 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>KAZIMDİRİK MAH. 364/1 SK. NO: 32A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>DEDEBAŞI MAHALLESİ 6111 SK. NO: 47A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>KONAK MAHALLESİ 901 SOKAK NO:2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>KÜLTÜR MAH. ALİ ÇETİNKAYA BUL. NO: 55 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>EFELER MAH. 346 SK. NO: 5A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>BAHARİYE MAH. DOÇ. DR. BAHRİYE ÜÇOK BUL. HURŞİT BEY NO: 4/1D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>KONAK MAH. 914 SK. SELVİLİ HAN NO: 5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 45A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI PALMİYE 2 BLOK NO: 7C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>CENNETOĞLU MAH. YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK NO: 230N İÇ KAPI NO: N KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>RAFET PAŞA MAH. ABDİ İPEKÇİ CAD. NO: 233A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>FAHRETTİN ALTAY MAHALLESİ 65/13 SOK. NO: 35A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>AOSB MAH. 10025 SK. NO: 12 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>BOSTANLI MAH. GİRNE BUL. NO: 33B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ÇATALKAYA MAHALLESİ MİTHATPAŞA CAD. NO:431/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>TOKOĞLU MAHALLESİ KEMALPAŞA CAD. NO:65 ALAÇATI ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>ALAÇATI MAHALLESİ UĞUR MUMCU CADDESİ NO:6/9 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>ALAÇATI MAHALLESİ HURMALI (KÜME EVLER) NO: 56 /1 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B85 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B111 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ALAÇATI MAH. 11040 SK. NO: 13 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 227 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>KAZIMDİRİK MAHALLESİ SÜVARİ CADDESİ NO:6/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>BARIŞ MAH. 302 SK. KAYA NO: 12C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>BARIŞ MAH. ADNAN KAHVECİ CAD. NO: 137-1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>BARIŞ MAH. 331 SK. KAYA NO: 57A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>İMBATLI MAH. 6070 SK. NO: 6B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO:4/5 B Apt BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>EGEMENLİK MAH. 6130 SK. NO: 16/10 İÇ KAPI NO: 10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>KAZIM DİRİK MAHALLESİ MAHALLESİ MUSTAFA KEMAL CADDESİ NO:37/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>R.ŞEVKET İNCE MAH. 2148/9 SK. NO: 1 İÇ KAPI NO: 1B73 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>GÜZELYALI MAH. MİTHATPAŞA CAD. NO: 1009A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>ATAKENT MAH. CAHER DUDAYEV BUL. NO: 132A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>KAZIMDİRİK MAH. 367/2 SK. NO: 4I BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>YILDIRIM BEYAZIT MAH. 5111 SK. NO: 19 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>MALTEPE MAHALLESİ MİTHATPAŞA CAD. NO: 117 A GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>GÜZELYALI MAHALLESİ 40 SOKAK NO: 27 A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>NERGİZ MAHALLESİ 1775/3 SK. NO:8/A SİLYANOĞLU BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>AYDIN MAHALLESİ 4328 SOKAK NO:19/A/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>AYDIN MAHALLESİ 4328 SOKAK NO:11/1-1-A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>ATAŞEHİR MAHALLESİ 8229/2 SOKAK NO: 7 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>GÜLYAKA MAHALLESİ SAİM ÇIKRIKÇI CAD. NO:93/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ ÖNDER CAD. NO: 119 /2A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK. NO:4/14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>YENİ MAHALLE MAHALLESİ 1671/1 SK. NO: 855 /1A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>ATİLLA MAHALLESİ 466 SOKAK NO: 40 A/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>KAZIM DİRİK MAHALLESİ ÜNİVERSİTE CD. NO:66 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>ATIFBEY MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO:11 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO: 24 İÇ KAPI NO: 309 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ATATÜRK MAH. 2222 SK. NO: 95 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>MAVİŞEHİR MAHALLESİ CAHER DUDAYEV CAD. NO:30/H KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>DONANMACI MAHALLESİ 1722 SK. GÜCELİ İŞ MERKEZİ BLOK NO: 9 İÇ KAPI NO: 30 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>MİTHAT PAŞA MAHALLESİ 194 SOKAK NO:12/A POSTAKODU:35280 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>YENİŞEHİR MAHALLESİ 1145 SOK. NO: 16 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>KAZIMDİRİK MAH. 194 SK. NO: 6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>GÖKSU MAH. 690/9 SK. NO: 60A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>EGEKENT MAH. 8847 SK. SAĞLIK MENSUPLARI SİTESİ LEVENT BLOK NO: 11A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>FEVZİÇAKMAK MAHALLESİ SAKARYA CADDESI BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>R.ŞEVKET İNCE MAHALLESİ 2148/9 SK. NO: 1/1B05 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ÇINARLI MAHALLESİ ANKARA ASFALTI CADDESİ . AVM Apt. NO: 15 /1T KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>KÜLTÜR MAHALLESİ PLEVNE BULVARI NO:25 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>YENİŞEHİR MAHALLESİ GAZİLER CADDESİ NO: 331 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>GÖKSU MAHALLESİ 637/24 SK. NO: 27 A/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>OSMANGAZİ MAHALLESİ YAVUZ CAD. NO: 288 A/ BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>MEVLANA MAHALLESİ 1751/4 SOKAK NO:3/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>ADALET MAHALLESİ 1596 SOK. HİTAY PLAZA BLOK NO: 2 İÇ KAPI NO: 28 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>KAZIMDİRİK MAH. GEDİZ CAD. KADRİ DAĞÜSTÜ NO: 21C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>AKINCILAR MAHALLESİ AYDIN HATBOYU CADDESI NO:346/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>İNÖNÜ MAHALLESİ 672 SK. NO: 53A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/1 SK. NO:26 ADB PLAZA BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1372 SOK. NO:17/1 ALSANCAK KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>ALTINTAŞ MAHALLESİ İNÖNÜ CAD. NO: 116 B/B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>KAZIM KARABEKİR MAHALLESİ 9021 SK. NO: 6A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>29 EKİM MAHALLESİ ATATÜRK CAD. NO: 81 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>KÜLTÜR MAHALLESİ İTALYA SOKAK NO:4/D BOYALI BLOK İÇ KAPI NO: 4D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>ATAKENT MAHALLESİ CAHER DUDAYEV BLV. NO: 118 B KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>UFUK MAH. 907/2 SK. NO: 4A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B120 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7448/4 SK. NO: 33 L KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/9 SOKAK NO:6/D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>KONAK MAHALLESİ 859 SK. SARAY İŞHANI APT. NO: 5/212- KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>KAZIMDİRİK MAHALLESİ 364/11 SK NO:1/3L BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>MANAVKUYU MAH. DUMLUPINAR CAD. NO: 53/1B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>KÜLTÜR MAH. ATATÜRK CAD. TAYYARE BLOK NO: 204A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>BADEMLER MAH. 15072 SK. NO: 1/101C URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>ŞEMİKLER MAHALLESİ ORDU BLV. NO: 184 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>MENDERES MAHALLESİ BÜYÜK MENDERES CAD. NO:77/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>FATİH MAH. 1213 SK. NO: 6K GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO: 47 B/2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SOKAK A BLOK NO: 84 İÇ KAPI NO: Z45 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>YELKİ MAH. 2730 SK. B NO: 69A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>YEŞİLBAĞLAR MAHALLESİ 647/1 SK. NO: 186 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>ERZENE MAHALLESİ KAZIM KARABEKİR CAD. NO:30 KAT:2 DAİRE:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>ÖRNEKKÖY MAH. 1847/3 SK. NO: 24B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ 686/5 SK. NO: 4A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>BAHRİYE ÜÇOK MAHALLESİ 9687/3 SK. NO:6A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>YELKİ MAHALLESİ İNÖNÜ CAD. NO: 74 A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>SARIYER MAHALLESİ 5673 SK. NO: 2A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>KAZIMDİRİK MAH. SANAYİ CAD. NO: 29C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>İNÖNÜ MAH. 777 SK. NO: 12 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>GONCALAR MAHALLESİ 6007/3 SK. TAKMAZ BLOK NO: 14C KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>KORUTÜRK MAHALLESİ MİTHATPAŞA CAD. İ. HAKKI BEY BLOK NO: 261B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>MAVİŞEHİR MAHALLESİ 2040 SK. EGE PARK ALIŞVERİŞ MERK Apt. NO: 104/Z62 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>KONAK MAH. 861 SK. NO: 54 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 273 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. ÖZSÜT BLOK NO: 51 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>KONAK MAHALLESİ 859 SK. SARAY İŞHANI APT. NO: 5/212- KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>AKINCI MAHALLESİ ANAFARTALAR CADDESİ NO:735 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>ÜÇKUYULAR MAH. MEHMETÇİK BUL. NO: 43B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>ÜÇKUYULAR MAH. MEHMETÇİK BUL. NO: 47A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>GAZİ MAH. 28/5 SK. NO: 8 İÇ KAPI NO: 5 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>REİSDERE MAH. 6099/2 SK. NO: 5D ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA CAD. NO:51 ÖZSÜT BLOK KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SK. NO: 6 D/ BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>ÇINAR MAHALLESİ FATİH CADDESİ NO:1/23/120 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>ATAŞEHİR MAHALLESİ 8229/1 SOK. NO:30 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>ÇANKAYA MAHALLESİ İNÖNÜ CAD. NO:332/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>KÜLTÜR MAHALLESİ MUSTAFA MÜNİR BİRSEL SK. KUT APT. NO: 16 C KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>KURUÇEŞME MAH. DOĞUŞ CAD. OTAĞKENT SİTESİ NO: 198B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>MANSUROĞLU MAH. 286/4 SK. NO: 12A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>AHMET EFENDİ MAHALLESİ 8790/5 SK. NO: 7 A ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>KÜLTÜR MAH. PLEVNE BUL. SAFİYE HANIM BLOK NO: 32F KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>BADEMLER MAHALLESİ 15035 SOKAK 5/A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>MANSUROĞLU MAHALLESİ İSLAM KERİMOV CAD. NO: 8C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>BEYAZEVLER MAHALLESİ OPTİMUM ALIŞVERİŞ MERKEZİ B-1. KAT NO:14/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>MANAVKUYU MAHALLESİ DUMLUPINAR CAD. NO:138/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>KAZIM DİRİK MAHALLESİ KURTULUŞ CAD. NO:15/D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>YENİ MAHALLE MAHALLESİ ESKİ HAVAALANI CAD. NO:40 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>ŞİRİNTEPE MAHALLESİ ANADOLU CADDESI NO: 778B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>KÜÇÜK ÇİĞLİ MAH. 8780/27 SK. NO: 18-5 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>NERGİZ MAHALLESİ 2002 SK. NO:14/A TUĞÇE BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>NERGİZ MAH. 2004 SK. KÖŞEM NO: 17A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>YUNUS EMRE MAH. 4951 SK. NO: 72B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL GÜRSEL CAD. NO: 472 /1/2 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13162,11 +11841,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. NO:101 MAĞAZA NO:B1K-021A İZMİR OPTİMUM AVM.</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13210,11 +11884,6 @@
           <t>ZAFER MAH. 4349/1 SK. NO: 7 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13258,11 +11927,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13306,11 +11970,6 @@
           <t>ÇUKURALTI MAH. MUSTAFA KEMAL PAŞA BUL. NO: 116B MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13354,11 +12013,6 @@
           <t>BAHÇELİEVLER MAH. 370 SK. NO: 10B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13402,11 +12056,6 @@
           <t>ERZENE MAH. 29 SK. NO: 2-6A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13450,11 +12099,6 @@
           <t>GÜZELYALI MAHALLESİ MİTHATPAŞA CD. NO: 1088A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13498,11 +12142,6 @@
           <t>KEMALPAŞA MAHALLESİ 7086 SK. NO: 21 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13546,11 +12185,6 @@
           <t>BOSTANLI MAHALLESİ CEMAL BÜLBÜL SK. NO: 2B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13594,11 +12228,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR ANKARA ASFALTI CAD. NO: 51 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13642,11 +12271,6 @@
           <t>KÜLTÜR MAHALLESİ 1382 SOKAK NO: 26A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13690,11 +12314,6 @@
           <t>BOSTANLI MAH. AŞIK VEYSEL SK. VEDATBEY NO: 4A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13738,11 +12357,6 @@
           <t>FEVZİÇAKMAK MAHALLESİ İZMİR CAD. NO:157 KAT:2 GÜMÜLDÜR MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13786,11 +12400,6 @@
           <t>BAHÇELİEVLER MAHALLESİ İNÖNÜ CAD. FİDAN BLOK NO: 99B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13834,11 +12443,6 @@
           <t>İNÖNÜ MAH. 787/1 SK. NO: 19A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13882,11 +12486,6 @@
           <t>YALI MAHALLESİ CAHER DUDAYEV BULVARI NO:77/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13930,11 +12529,6 @@
           <t>KORUTÜRK MAH. MİTHATPAŞA CAD. SELİN BLOK NO: 263A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13978,11 +12572,6 @@
           <t>EGEMENLİK MAH. 6074 SK. NO: 8A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14026,11 +12615,6 @@
           <t>MANSUROĞLU MAH. 286/3 SK. NO: 11C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14074,11 +12658,6 @@
           <t>BOSTANLI MAH. 1787/1 SK. KÖŞEM BLOK NO: 35B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14122,11 +12701,6 @@
           <t>ÇAHABEY MAHALLESİ 384 SOKAK NO:48 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14170,11 +12744,6 @@
           <t>ATATÜRK MAHALLESİ 915 SOKAK NO:25 A /- _ ADRES NO: 2398316907 OFİS VE İŞYERİ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14218,11 +12787,6 @@
           <t>KÜLTÜR MAH. ATATÜRK CAD. MARTI APARTMAN BLOK NO: 202A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14266,11 +12830,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 612 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14314,11 +12873,6 @@
           <t>ATAŞEHİR MAH. YENİHAVAALANI CAD. ÇİĞLİ KİPA NO: 40 İÇ KAPI NO: Z15 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14362,11 +12916,6 @@
           <t>MİMAR SİNAN MAHALLESİ 1420 SK. NO:90/B ALSANCAK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14410,11 +12959,6 @@
           <t>KURUÇEŞME MAH. AHMET PİRİŞTİNA BUL. NO: 64A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14458,11 +13002,6 @@
           <t>ADATEPE MAH. BAŞARI CAD. NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14506,11 +13045,6 @@
           <t>YENİGÜN MAHALLESİ 265/8 SK. NO:31/1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14554,11 +13088,6 @@
           <t>UFUK MAHALLESİ FEVZİ ÇAKMAK CAD. NO: 222 B BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14602,11 +13131,6 @@
           <t>UFUK MAH. 893 SK. NO: 11A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14650,11 +13174,6 @@
           <t>KÜLTÜR MAHALLESİ ŞAİR EŞREF BULVARI BAHAR BLOK NO: 61C İÇ KAPI NO: 61C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14698,11 +13217,6 @@
           <t>AOSB MAHALLESİ 10010 SK. ORBA İLAÇ APT. NO: 10 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14746,11 +13260,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ OSMAN PAŞA BULVARI NO:46/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14794,11 +13303,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14842,11 +13346,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372 SOKAK NO:36 FORUM SİT. A2BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14890,11 +13389,6 @@
           <t>ATAŞEHİR MAHALLESİ YENİHAVAALANI CADDESİ NO:40/Z 103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14938,11 +13432,6 @@
           <t>BADEMLER MAHALLESİ SEFERİHİSAR CADDESİ NO:72 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14986,11 +13475,6 @@
           <t>ILICA MAHALLESİ 5133 SOK. NO:20/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15034,11 +13518,6 @@
           <t>ATIFBEY MAHALLESİ PROF. TÜRKAN SAYLAN CAD. NO: 32 B/B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15082,11 +13561,6 @@
           <t>YUNUS EMRE MAHALLESİ 4024 SOKAK NO: 27 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15130,11 +13604,6 @@
           <t>ATAKENT MAH. CAHER DUDAYEV BUL. PALMİYE BLOK NO: 114D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15178,11 +13647,6 @@
           <t>YALI MAHALLESİ 6479 SOKAK NO:42/A SEVİM HN APRT KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15226,11 +13690,6 @@
           <t>MENDERES MAHALLESİ HALK CADDESI NO: 40 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15274,11 +13733,6 @@
           <t>YENİGÜN MAH. 266 SK. ŞİMŞEK NO: 26 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15322,11 +13776,6 @@
           <t>ATATÜRK MAHALLESİ 905/1 SOKAK NO:4/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15370,11 +13819,6 @@
           <t>MİMAR SİNAN MAHALLESİ MİMAR SİNAN CAD. ATİK Apt. NO: 5 B/5B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15418,11 +13862,6 @@
           <t>YEŞİLOVA MAH. ABDİ İPEKÇİ CAD. NO: 85A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15466,11 +13905,6 @@
           <t>ALAÇATI MAHALLESİ 11026 SOKAK NO:4/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15514,11 +13948,6 @@
           <t>SELVİLİ MAHALLESİ ŞEHİT PİLOT VOLKAN KOÇYİĞİT BLV. BAYLAN APT. NO: 57 A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15562,11 +13991,6 @@
           <t>MAVİŞEHİR MAH. AZİZ NESİN BUL. FLAMİNGO14 NO: 111 İÇ KAPI NO: 9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15610,11 +14034,6 @@
           <t>RAFET PAŞA MAH. YILDIRIM BEYAZIT CAD. B BLOK NO: 217E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15658,11 +14077,6 @@
           <t>1.KADRİYE MAHALLESİ 628 SOKAK NO: 63 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15704,11 +14118,6 @@
       <c r="I318" s="2" t="inlineStr">
         <is>
           <t>ÇAMLIKULE MAHALLESİ GAZETECİ YAZAR İSMAİL SİVRİ BLV. NO: 125 A/A BUCA/İZMİR</t>
-        </is>
-      </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>10 - PASTA VE ŞEKERLEME GRUBU</t>
         </is>
       </c>
     </row>
